--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>527760.0401656474</v>
+        <v>518063.9287051856</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621777</v>
+        <v>7765049.28162178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951108</v>
+        <v>6187346.756951109</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7704426.306316528</v>
+        <v>7645152.04739078</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>36.22155466556757</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>269.3376228543053</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -877,10 +879,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>119.2158337902828</v>
       </c>
       <c r="X4" t="n">
-        <v>227.0672929610288</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>251.7082699217153</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>282.607129861187</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>164.5078794940943</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23.3431894519626</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>105.7788661369301</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>146.5980694263805</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>221.8252962429025</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>53.44234321888678</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1588,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>393.9470907639073</v>
       </c>
       <c r="D14" t="n">
-        <v>200.3333018575504</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1853,10 +1855,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>269.3376228543056</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>138.0748604270559</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>78.78400486012846</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>300.0352008406025</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059088</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>356.9224994274309</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2476,13 +2478,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>156.6355495128298</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>21.86747133903325</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2566,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>182.9658461469756</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2804,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.6942298771795</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>135.8663667798422</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>158.3449400448986</v>
+        <v>292.2732044987391</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>11.22535429200823</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>165.421695385058</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>278.4081616874238</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>108.2642464846192</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.655087893786</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3952,16 +3954,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>271.0640515220193</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>244.1347653721494</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>43.42340976889709</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4144,13 +4146,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>106.9706214097032</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>127.8710203300645</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492.6927300678241</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C2" t="n">
-        <v>456.1053011127053</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D2" t="n">
         <v>456.1053011127053</v>
@@ -4331,10 +4333,10 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
         <v>812.7934917636817</v>
@@ -4343,7 +4345,7 @@
         <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.493980615271</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1303.850582784223</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>902.9139097323135</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4395,37 +4397,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M3" t="n">
-        <v>234.5779431922355</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.817095773278</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>774.9313507128002</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>495.8616862216745</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="X4" t="n">
-        <v>266.5007842408373</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1141.815353557804</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C5" t="n">
-        <v>731.6907628710738</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2268329641344</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>327.2268329641344</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>327.2268329641344</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>327.2268329641344</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4571,19 +4573,19 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>696.9525363802143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1552.036533222293</v>
+        <v>296.0158633283044</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4653,19 +4655,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.429305553252</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>446.2290155365415</v>
+        <v>1294.272800950781</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>884.1482102640515</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>479.684280357112</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>65.34406487400872</v>
       </c>
       <c r="F8" t="n">
         <v>41.76508562960205</v>
@@ -4814,16 +4816,16 @@
         <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1981.40694194785</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1631.56938728433</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1247.809086419499</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X8" t="n">
-        <v>847.1656885884514</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y8" t="n">
-        <v>446.2290155365415</v>
+        <v>1704.493980615271</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4889,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1108.0844214989</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1695.988587952916</v>
+        <v>1080.419562024183</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>670.2949713374531</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>265.8310414305137</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5039,25 +5041,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5072,19 +5074,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1080.419562024183</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
@@ -5121,22 +5123,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.257211227551</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O12" t="n">
-        <v>2048.100145893876</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>427.6287674610298</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>262.997641571621</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>95.74725049716446</v>
       </c>
       <c r="H13" t="n">
         <v>41.76508562960205</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>588.5395825927103</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>654.2465468795142</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C14" t="n">
-        <v>244.1219561927843</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5279,22 +5281,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>1250.250340018485</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5306,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1465.404399595914</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1064.467726544004</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
@@ -5361,13 +5363,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811262</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5458,25 +5460,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y16" t="n">
         <v>41.76508562960205</v>
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1542.752026609714</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C17" t="n">
-        <v>1132.627435922984</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D17" t="n">
-        <v>728.1635060160443</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>313.823290532941</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>313.823290532941</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5540,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1952.973206274203</v>
+        <v>1948.784725493177</v>
       </c>
       <c r="U17" t="n">
-        <v>1952.973206274203</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="V17" t="n">
-        <v>1952.973206274203</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="W17" t="n">
-        <v>1952.973206274203</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="X17" t="n">
-        <v>1952.973206274203</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="Y17" t="n">
-        <v>1952.973206274203</v>
+        <v>1691.724233752687</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>719.1799065727032</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>719.1799065727032</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>719.1799065727032</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>906.8796129667476</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>906.8796129667476</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>1562.981937992009</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>1162.338540160962</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>761.4018671090519</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>741.2874990066346</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>558.8553848592519</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1010.207257657022</v>
+        <v>3966.951332071984</v>
       </c>
       <c r="C25" t="n">
-        <v>1010.207257657022</v>
+        <v>3795.857959633701</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>3636.363314956611</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>3636.363314956611</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3471.732189067202</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3304.481797992745</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3154.874342798202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.250826191383</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="W25" t="n">
-        <v>1436.250826191383</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="X25" t="n">
-        <v>1197.906964051067</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="Y25" t="n">
-        <v>1197.906964051067</v>
+        <v>4154.651038466029</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
         <v>93.2436976906228</v>
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.13812587521</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>247.8145451759896</v>
       </c>
       <c r="D28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1015.022989509699</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>741.1372444492208</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W28" t="n">
-        <v>556.3232584421747</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X28" t="n">
-        <v>317.9793963018581</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6649,22 +6651,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U31" t="n">
-        <v>4379.386737077264</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V31" t="n">
-        <v>4379.386737077264</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W31" t="n">
-        <v>4379.386737077264</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X31" t="n">
-        <v>4379.386737077264</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="Y31" t="n">
-        <v>4379.386737077264</v>
+        <v>3449.64383417929</v>
       </c>
     </row>
     <row r="32">
@@ -6725,13 +6727,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V32" t="n">
         <v>4144.752941388363</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V34" t="n">
-        <v>554.7454763291312</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W34" t="n">
-        <v>275.6758118380055</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
         <v>93.2436976906228</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1129.033635947823</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1129.033635947823</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>264.3370701289063</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7120,25 +7122,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V37" t="n">
-        <v>554.7454763291312</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W37" t="n">
-        <v>275.6758118380055</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X37" t="n">
-        <v>264.3370701289063</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y37" t="n">
-        <v>264.3370701289063</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7363,16 +7365,16 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>830.2090035026529</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V40" t="n">
-        <v>556.3232584421747</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W40" t="n">
-        <v>556.3232584421747</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y40" t="n">
         <v>93.2436976906228</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.930282068041</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1008.590066584938</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7439,22 +7441,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7500,13 +7502,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>936.2207783851894</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
         <v>93.2436976906228</v>
@@ -7591,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1196.702087168085</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>922.8163421076072</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W43" t="n">
-        <v>643.7466776164815</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="X43" t="n">
-        <v>405.4028154761649</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y43" t="n">
-        <v>405.4028154761649</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.3658587327833</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>288.3658587327833</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960205</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960205</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>137.1057277602158</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959273</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1014.011766457887</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1530.854701124212</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221062</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1473.706230480572</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1089.945929615741</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>689.3025317846932</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.3658587327833</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960205</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>537.7254774811266</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147452</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.31505061373</v>
+        <v>4105.773792315753</v>
       </c>
       <c r="C46" t="n">
-        <v>470.2216781754465</v>
+        <v>3934.680419877469</v>
       </c>
       <c r="D46" t="n">
-        <v>310.7270334983565</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E46" t="n">
-        <v>149.816218366676</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960205</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960205</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U46" t="n">
-        <v>1571.163982250452</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="V46" t="n">
-        <v>1571.163982250452</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="W46" t="n">
-        <v>1292.094317759326</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="X46" t="n">
-        <v>1053.75045561901</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.0147570077744</v>
+        <v>4293.473498709797</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P2" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>528.0883472030761</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8219,22 +8221,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8301,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>175.2980289959029</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730677</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8462,19 +8464,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>553.1935596277625</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>170.9271386512354</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>525.371627415828</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8769,7 +8771,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8784,10 +8786,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>94.8193679181835</v>
+        <v>201.8514806265821</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8927,10 +8929,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
@@ -8939,13 +8941,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9009,7 +9011,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
         <v>579.627854108443</v>
@@ -9018,7 +9020,7 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793176</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9243,7 +9245,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9255,13 +9257,13 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>555.229727782121</v>
+        <v>263.5046911326696</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9954,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10361,13 +10363,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O32" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10662,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
@@ -10674,13 +10676,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>511.28013062098</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,16 +11150,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>352.6623456499191</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>552.9160747585987</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11379,19 +11381,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>369.801790114295</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>127.5896834670855</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.0631340559315</v>
       </c>
       <c r="X4" t="n">
-        <v>8.89313055788466</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>154.4106979461293</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22799,7 +22801,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19228253737219</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>4.874559219806315</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>393.4769184738867</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23075,19 +23077,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>148.7110206861549</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>22.78436928752012</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.3715170853698</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23312,10 +23314,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23324,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,16 +23424,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>94.66903742371113</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12.07625401595521</v>
       </c>
       <c r="D14" t="n">
-        <v>200.0859887503196</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23546,7 +23548,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23558,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>135.3033784117906</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>81.90955878555391</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23896,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>80.51770212023526</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,10 +24028,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>79.88749701558061</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300461</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.1964684404137</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.264148717489235</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>93.31511409768386</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24427,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24452,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>4.874559219806002</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>93.31312169923874</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.12847945292444</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>100.0940567390712</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>187.9942390719855</v>
+        <v>54.06597461814499</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>224.7350692269052</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006493</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.562004291913297</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.16762143631794</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>5.21491632419503</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>156.2845252357206</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>56.01419322081142</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26074,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -26083,13 +26085,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>94.6173212950584</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533013.0633262817</v>
+        <v>533013.0633262816</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533013.0633262816</v>
+        <v>533013.0633262818</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533013.0633262818</v>
+        <v>533013.0633262817</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>533013.0633262818</v>
+        <v>533013.0633262817</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811505.8939585916</v>
+        <v>533013.0633262818</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811505.8939585915</v>
+        <v>811505.8939585916</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811505.8939585917</v>
+        <v>811505.8939585915</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811505.8939585915</v>
+        <v>811505.8939585916</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>533013.0633262817</v>
+        <v>811505.8939585915</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="C2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="D2" t="n">
         <v>152207.2113488842</v>
@@ -26329,31 +26331,31 @@
         <v>152207.2113488842</v>
       </c>
       <c r="H2" t="n">
-        <v>231718.934028075</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="I2" t="n">
         <v>231718.934028075</v>
       </c>
       <c r="J2" t="n">
+        <v>231718.934028075</v>
+      </c>
+      <c r="K2" t="n">
         <v>231718.9340280751</v>
-      </c>
-      <c r="K2" t="n">
-        <v>231718.934028075</v>
       </c>
       <c r="L2" t="n">
         <v>231718.934028075</v>
       </c>
       <c r="M2" t="n">
+        <v>231718.934028075</v>
+      </c>
+      <c r="N2" t="n">
+        <v>231718.934028075</v>
+      </c>
+      <c r="O2" t="n">
+        <v>231718.934028075</v>
+      </c>
+      <c r="P2" t="n">
         <v>231718.9340280751</v>
-      </c>
-      <c r="N2" t="n">
-        <v>231718.9340280751</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231718.9340280751</v>
-      </c>
-      <c r="P2" t="n">
-        <v>152207.2113488842</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>171115.5499734837</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26433,10 +26435,10 @@
         <v>19747.62995624142</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398331</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="I4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="J4" t="n">
         <v>30192.61954398331</v>
@@ -26451,13 +26453,13 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="O4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
-        <v>19747.62995624142</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487332</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107864.9935789688</v>
+        <v>-107864.9935789689</v>
       </c>
       <c r="C6" t="n">
-        <v>67090.51631414521</v>
+        <v>67090.51631414518</v>
       </c>
       <c r="D6" t="n">
         <v>67090.51631414521</v>
@@ -26537,13 +26539,13 @@
         <v>100718.1163141452</v>
       </c>
       <c r="H6" t="n">
-        <v>-42956.30628043094</v>
+        <v>100718.1163141452</v>
       </c>
       <c r="I6" t="n">
-        <v>130661.1042392184</v>
+        <v>-40454.44573426529</v>
       </c>
       <c r="J6" t="n">
-        <v>-5933.696566676503</v>
+        <v>-5933.696566676561</v>
       </c>
       <c r="K6" t="n">
         <v>130661.1042392184</v>
@@ -26561,7 +26563,7 @@
         <v>130661.1042392184</v>
       </c>
       <c r="P6" t="n">
-        <v>100718.1163141453</v>
+        <v>130661.1042392184</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>1165.546221132785</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>643.4826507627594</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P2" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
+        <v>117.7337452574854</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35182,19 +35184,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>471.1119924130243</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O11" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>40.55973291537975</v>
+        <v>147.5918456237784</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
@@ -35659,13 +35661,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
         <v>522.0635703700256</v>
@@ -35738,7 +35740,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793172</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37081,13 +37083,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>453.52865162098</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37795,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>294.9108666499191</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>460.0037840019794</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518063.9287051856</v>
+        <v>513831.0561815167</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.28162178</v>
+        <v>7765049.281621776</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951109</v>
+        <v>6187346.756951107</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7645152.04739078</v>
+        <v>7645152.047390781</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.1960340888585</v>
       </c>
       <c r="Y2" t="n">
-        <v>269.3376228543053</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>119.2158337902828</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.7082699217153</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>197.4951220224902</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>98.94574135710867</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1110,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>193.4457141148771</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.3431894519626</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>370.8385133174495</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>146.5980694263805</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>221.8252962429025</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>286.246778727921</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.44234321888678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>100.3615899883151</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>57.68485424712815</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>202.872966755858</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>138.0748604270559</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>78.78400486012846</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>112.1399133746317</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>300.0352008406025</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>21.86747133903325</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>153.0251390105131</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2794,13 +2794,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>373.736032213064</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>135.8663667798422</v>
+        <v>41.24458363092516</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>292.2732044987391</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.421695385058</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>187.6971066458115</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>343.2559819443612</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3900,16 +3900,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3960,7 +3960,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>271.0640515220193</v>
+        <v>102.3703427217041</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>43.42340976889709</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.8710203300645</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.693821706375</v>
+        <v>1368.000135152739</v>
       </c>
       <c r="C2" t="n">
-        <v>860.5692310196448</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="D2" t="n">
-        <v>456.1053011127053</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4336,22 +4336,22 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4372,10 +4372,10 @@
         <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>1768.936808204649</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.915001370864</v>
+        <v>1368.000135152739</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>382.8468301365112</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>382.8468301365112</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.76508562960205</v>
+        <v>1666.557775182021</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960205</v>
+        <v>1666.557775182021</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960205</v>
+        <v>1262.093845275082</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L5" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L5" t="n">
-        <v>1329.636426430007</v>
-      </c>
       <c r="M5" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.356235076093</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.595934211262</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>696.9525363802143</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y5" t="n">
-        <v>296.0158633283044</v>
+        <v>1666.557775182021</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008379</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1059.950756782464</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>949.8237638799155</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.950756782464</v>
+        <v>675.9380188194375</v>
       </c>
       <c r="W7" t="n">
-        <v>1059.950756782464</v>
+        <v>675.9380188194375</v>
       </c>
       <c r="X7" t="n">
-        <v>1059.950756782464</v>
+        <v>437.5941566791208</v>
       </c>
       <c r="Y7" t="n">
-        <v>1059.950756782464</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1294.272800950781</v>
+        <v>953.6111902657808</v>
       </c>
       <c r="C8" t="n">
-        <v>884.1482102640515</v>
+        <v>953.6111902657808</v>
       </c>
       <c r="D8" t="n">
-        <v>479.684280357112</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E8" t="n">
-        <v>65.34406487400872</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4840,16 +4840,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.493980615271</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.493980615271</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.493980615271</v>
+        <v>1363.83236993027</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433488</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1108.0844214989</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4992,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>1332.820120110135</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1108.0844214989</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1080.419562024183</v>
+        <v>1253.61386627848</v>
       </c>
       <c r="C11" t="n">
-        <v>670.2949713374531</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="D11" t="n">
-        <v>265.8310414305137</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
@@ -5050,43 +5050,43 @@
         <v>295.9505570973564</v>
       </c>
       <c r="M11" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N11" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O11" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>1481.356235076093</v>
+        <v>1663.83504594297</v>
       </c>
       <c r="W11" t="n">
-        <v>1481.356235076093</v>
+        <v>1663.83504594297</v>
       </c>
       <c r="X11" t="n">
-        <v>1481.356235076093</v>
+        <v>1663.83504594297</v>
       </c>
       <c r="Y11" t="n">
-        <v>1080.419562024183</v>
+        <v>1663.83504594297</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P12" t="n">
         <v>1738.409816796118</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>427.6287674610298</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>262.997641571621</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>95.74725049716446</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
         <v>41.76508562960205</v>
@@ -5238,13 +5238,13 @@
         <v>588.5395825927103</v>
       </c>
       <c r="W13" t="n">
-        <v>588.5395825927103</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X13" t="n">
-        <v>588.5395825927103</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.254281480102</v>
+        <v>1363.735780952511</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.327927173125</v>
+        <v>953.6111902657808</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1764.672454004421</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1764.672454004421</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1764.672454004421</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1764.672454004421</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1363.735780952511</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1592.293889628578</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C16" t="n">
         <v>41.76508562960205</v>
@@ -5466,22 +5466,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.598203386633</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.800055932758</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>783.9143108722797</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>504.844646381154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>266.5007842408373</v>
+        <v>437.5941566791208</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1691.724233752687</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="C17" t="n">
-        <v>1281.599643065957</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="D17" t="n">
-        <v>877.1357131590178</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="E17" t="n">
-        <v>462.7954976759145</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
@@ -5518,16 +5518,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O17" t="n">
         <v>2088.254281480102</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>1948.784725493177</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>1691.724233752687</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>1691.724233752687</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W17" t="n">
-        <v>1691.724233752687</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X17" t="n">
-        <v>1691.724233752687</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y17" t="n">
-        <v>1691.724233752687</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.1799065727032</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>719.1799065727032</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>719.1799065727032</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.223475107064</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1145.223475107064</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>1145.223475107064</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>906.8796129667476</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.8796129667476</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>761.4018671090519</v>
+        <v>645.8534179918237</v>
       </c>
       <c r="C20" t="n">
-        <v>761.4018671090519</v>
+        <v>645.8534179918237</v>
       </c>
       <c r="D20" t="n">
-        <v>761.4018671090519</v>
+        <v>241.3894880848842</v>
       </c>
       <c r="E20" t="n">
-        <v>761.4018671090519</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F20" t="n">
-        <v>761.4018671090519</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G20" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I20" t="n">
         <v>41.76508562960205</v>
@@ -5755,25 +5755,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L20" t="n">
-        <v>41.76508562960205</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M20" t="n">
-        <v>176.0078249962696</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>1866.047797426961</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V20" t="n">
-        <v>1866.047797426961</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W20" t="n">
-        <v>1562.981937992009</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X20" t="n">
-        <v>1162.338540160962</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.4018671090519</v>
+        <v>645.8534179918237</v>
       </c>
     </row>
     <row r="21">
@@ -5840,16 +5840,16 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N21" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O21" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
         <v>2088.254281480102</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.8553848592519</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1816.589795035412</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="T22" t="n">
-        <v>1577.041056012114</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.242908558238</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.35716349776</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W22" t="n">
-        <v>741.2874990066346</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X22" t="n">
-        <v>558.8553848592519</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.8553848592519</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3966.951332071984</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3795.857959633701</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3636.363314956611</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3636.363314956611</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3471.732189067202</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3304.481797992745</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3154.874342798202</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4379.386737077264</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4379.386737077264</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4379.386737077264</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4379.386737077264</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4154.651038466029</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6265,13 +6265,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>418.9079176142731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>247.8145451759896</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1348.756849250995</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>1069.687184759869</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>831.3433226195527</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>606.6076240083174</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.64383417929</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y31" t="n">
-        <v>3449.64383417929</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="32">
@@ -6727,13 +6727,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
         <v>4144.752941388363</v>
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3132.785987910289</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6922,16 +6922,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7019,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1537.369875986873</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2237.518802661711</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C38" t="n">
-        <v>1827.394211974981</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.930282068041</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E38" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X38" t="n">
-        <v>3048.67665537811</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y38" t="n">
-        <v>2647.7399823262</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7356,25 +7356,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
         <v>93.2436976906228</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>588.462840695405</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>554.7454763291312</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W43" t="n">
-        <v>280.9434040846672</v>
+        <v>776.1625470894494</v>
       </c>
       <c r="X43" t="n">
-        <v>280.9434040846672</v>
+        <v>776.1625470894494</v>
       </c>
       <c r="Y43" t="n">
-        <v>280.9434040846672</v>
+        <v>776.1625470894494</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1692.113136769081</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1277.772921285978</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>856.7425092396657</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>448.0142251324978</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1057277602158</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4105.773792315753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3934.680419877469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>4422.636145507842</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>4422.636145507842</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>4422.636145507842</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>4422.636145507842</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>4293.473498709797</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,10 +8078,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8233,13 +8233,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8664545776218</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>175.2980289959029</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>70.59911775623679</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9271386512354</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,22 +8698,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O11" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>535.5249675786654</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>201.8514806265821</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
@@ -8941,7 +8941,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>558.7215717793176</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9166,7 +9166,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
         <v>617.5489684328704</v>
@@ -9175,10 +9175,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P18" t="n">
-        <v>263.5046911326696</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9403,28 +9403,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>228.888951090043</v>
+        <v>594.2603172363631</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>425.6143201009266</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L29" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M29" t="n">
         <v>877.4504173780091</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10354,7 +10354,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
@@ -10369,7 +10369,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10603,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10667,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>491.1608819079409</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
@@ -11387,16 +11387,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>214.4409297638785</v>
       </c>
       <c r="Y2" t="n">
-        <v>127.5896834670855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>157.0631340559315</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.4106979461293</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>199.4321842989006</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>70.43669735679198</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>86.52445186445999</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>393.4769184738867</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23041,7 +23041,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,16 +23080,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>26.0887930039413</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>22.78436928752012</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.3715170853698</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23275,10 +23275,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>60.09240038896309</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23424,16 +23424,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>94.66903742371113</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>154.1282968347699</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23706,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>178.2755692717853</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>207.3238465724142</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>81.90955878555391</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>80.51770212023526</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>298.0568999536405</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>79.88749701558061</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>31.50271142837616</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>93.31511409768386</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>4.874559219806002</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24654,10 +24654,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>32.28731256679851</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24852,10 +24852,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>100.0940567390712</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>54.06597461814499</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06664624006493</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>32.28731256679822</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.083197172522887</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.21491632419503</v>
+        <v>173.9086251245103</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06483528720048</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.6173212950584</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533013.0633262818</v>
+        <v>533013.0633262816</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533013.0633262817</v>
+        <v>533013.0633262816</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>533013.0633262817</v>
+        <v>533013.0633262816</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533013.0633262817</v>
+        <v>533013.0633262816</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>533013.0633262818</v>
+        <v>533013.0633262816</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811505.8939585915</v>
+        <v>811505.8939585917</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811505.8939585916</v>
+        <v>811505.8939585917</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811505.8939585916</v>
+        <v>811505.8939585917</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811505.8939585915</v>
+        <v>811505.8939585917</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811505.8939585915</v>
+        <v>811505.8939585917</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811505.8939585916</v>
+        <v>811505.8939585915</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811505.8939585915</v>
+        <v>811505.8939585917</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="C2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="D2" t="n">
         <v>152207.2113488842</v>
@@ -26325,7 +26325,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="F2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488843</v>
       </c>
       <c r="G2" t="n">
         <v>152207.2113488842</v>
@@ -26334,7 +26334,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="I2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="J2" t="n">
         <v>231718.934028075</v>
@@ -26343,13 +26343,13 @@
         <v>231718.9340280751</v>
       </c>
       <c r="L2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="M2" t="n">
         <v>231718.934028075</v>
       </c>
       <c r="N2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="O2" t="n">
         <v>231718.934028075</v>
@@ -26438,7 +26438,7 @@
         <v>19747.62995624142</v>
       </c>
       <c r="I4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="J4" t="n">
         <v>30192.61954398331</v>
@@ -26453,10 +26453,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
+        <v>30192.61954398331</v>
+      </c>
+      <c r="O4" t="n">
         <v>30192.61954398332</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107864.9935789689</v>
+        <v>-108542.5224383629</v>
       </c>
       <c r="C6" t="n">
-        <v>67090.51631414518</v>
+        <v>66412.98745475122</v>
       </c>
       <c r="D6" t="n">
-        <v>67090.51631414521</v>
+        <v>66412.98745475116</v>
       </c>
       <c r="E6" t="n">
-        <v>100718.1163141452</v>
+        <v>100040.5874547512</v>
       </c>
       <c r="F6" t="n">
-        <v>100718.1163141452</v>
+        <v>100040.5874547513</v>
       </c>
       <c r="G6" t="n">
-        <v>100718.1163141452</v>
+        <v>100040.5874547511</v>
       </c>
       <c r="H6" t="n">
-        <v>100718.1163141452</v>
+        <v>100040.5874547512</v>
       </c>
       <c r="I6" t="n">
-        <v>-40454.44573426529</v>
+        <v>-40635.02632691435</v>
       </c>
       <c r="J6" t="n">
-        <v>-5933.696566676561</v>
+        <v>-6114.277159325661</v>
       </c>
       <c r="K6" t="n">
-        <v>130661.1042392184</v>
+        <v>130480.5236465693</v>
       </c>
       <c r="L6" t="n">
-        <v>130661.1042392184</v>
+        <v>130480.5236465693</v>
       </c>
       <c r="M6" t="n">
-        <v>130661.1042392184</v>
+        <v>130480.5236465693</v>
       </c>
       <c r="N6" t="n">
-        <v>130661.1042392184</v>
+        <v>130480.5236465694</v>
       </c>
       <c r="O6" t="n">
-        <v>130661.1042392184</v>
+        <v>130480.5236465693</v>
       </c>
       <c r="P6" t="n">
-        <v>130661.1042392184</v>
+        <v>130480.5236465693</v>
       </c>
     </row>
   </sheetData>
@@ -34704,25 +34704,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>244.2170912967376</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>117.7337452574854</v>
-      </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>117.7337452574854</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P12" t="n">
-        <v>147.5918456237784</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
@@ -35661,7 +35661,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>367.8628411009266</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O15" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
         <v>522.0635703700256</v>
@@ -35895,10 +35895,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>367.8628411009266</v>
+      </c>
+      <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N18" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>209.2450561298658</v>
-      </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>135.5987266329975</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L29" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M29" t="n">
         <v>784.1601929209636</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M32" t="n">
         <v>784.1601929209636</v>
@@ -37089,7 +37089,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
